--- a/docs/PTA2_DDC_100/PTA2_DDC_100_24.07.24_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,183 +505,207 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731788629.2735393</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731788629.2735393.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731788629.2735393.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>295.99</v>
       </c>
-      <c r="J3" t="n">
-        <v>295.99</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>296.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.5099999999999909</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731788635.490349</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731788635.490349.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731788635.490349.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>135.9</v>
       </c>
-      <c r="J4" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>136.76</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.8599999999999852</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731788642.73599</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731788642.827199</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788642.73599.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788642.827199.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>6971</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6964.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>6.5</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -679,95 +713,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731788650.5971334</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731788650.5971334.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731788650.5971334.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>535.65</v>
       </c>
-      <c r="J6" t="n">
-        <v>535.65</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>537</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1.350000000000023</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731788657.383804</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731788663.005415</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788657.383804.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788663.005415.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>1103.4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>1091.8</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>11.60000000000014</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -775,43 +821,49 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731788665.511691</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731788665.511691.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731788665.511691.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1084.6</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>1084.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -819,183 +871,207 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731788666.488325</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731788666.488325.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731788666.488325.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>129.48</v>
       </c>
-      <c r="J9" t="n">
-        <v>129.48</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>131.44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1.960000000000008</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731788677.4955316</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731788677.4955316.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731788677.4955316.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>169.68</v>
       </c>
-      <c r="J10" t="n">
-        <v>169.68</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>171.74</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-2.060000000000002</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731788693.8739963</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731788693.8739963.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731788693.8739963.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>1471</v>
       </c>
-      <c r="J11" t="n">
-        <v>1471</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1464.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6.200000000000045</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731788698.4719481</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731788699.9046178</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788698.4719481.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788699.9046178.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>64.06999999999999</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>63.78</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.289999999999992</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1003,95 +1079,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731788702.1974864</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731788702.1974864.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731788702.1974864.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>64.39</v>
       </c>
-      <c r="J13" t="n">
-        <v>64.39</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>63.95</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731788709.4013526</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731788712.437818</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788709.4013526.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788712.437818.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>58.86</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>59.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -1099,51 +1187,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731788715.4448743</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731788719.7755375</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788715.4448743.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788719.7755375.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>145.58</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>146.02</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1151,95 +1245,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731788723.679797</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731788723.679797.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731788723.679797.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="J16" t="n">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731788729.6508927</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731788731.0505898</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731788729.6508927.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731788731.0505898.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>363.83</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>361.6</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>2.229999999999961</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -1247,227 +1353,257 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731788734.7237737</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731788734.7237737.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731788734.7237737.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>366.4</v>
       </c>
-      <c r="J18" t="n">
-        <v>366.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.24</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-3.840000000000032</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731788736.6875768</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731788736.6875768.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731788736.6875768.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>0.09960000000000001</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.09960000000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.10026</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.0006599999999999939</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731788744.0698888</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731788744.0698888.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731788744.0698888.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>3117.15</v>
       </c>
-      <c r="J20" t="n">
-        <v>3117.15</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>3132.95</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-15.79999999999973</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731788755.6162019</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731788755.6162019.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731788755.6162019.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>38.055</v>
       </c>
-      <c r="J21" t="n">
-        <v>38.055</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>37.995</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731788761.7285633</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731788762.0505302</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788761.7285633.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788762.0505302.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>664.9</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>662.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>2.399999999999977</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1475,51 +1611,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731788764.2523143</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731788765.565653</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788764.2523143.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788765.565653.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>665.6</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>664.1</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1603,19 +1745,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.229999999999961</v>
+        <v>-1.61000000000007</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.114999999999981</v>
+        <v>-0.8050000000000352</v>
       </c>
       <c r="E3" t="n">
-        <v>0.61</v>
+        <v>-0.4400000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="4">
@@ -1647,19 +1789,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.289999999999992</v>
+        <v>0.7299999999999898</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.144999999999996</v>
+        <v>0.3649999999999949</v>
       </c>
       <c r="E5" t="n">
-        <v>0.45</v>
+        <v>1.13</v>
       </c>
       <c r="F5" t="n">
-        <v>0.22</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1669,19 +1811,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1735,19 +1877,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0.5099999999999909</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.5099999999999909</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="10">
@@ -1757,19 +1899,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="11">
@@ -1779,19 +1921,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.350000000000023</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.350000000000023</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="12">
@@ -1801,19 +1943,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-2.060000000000002</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-2.060000000000002</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-1.21</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="13">
@@ -1823,19 +1965,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-15.79999999999973</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-15.79999999999973</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="14">
@@ -1867,19 +2009,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-1.960000000000008</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-1.960000000000008</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-1.51</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="16">
@@ -1889,19 +2031,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.8599999999999852</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.8599999999999852</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="17">
@@ -1911,19 +2053,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.0006599999999999939</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.0006599999999999939</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.66</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="18">
@@ -1933,19 +2075,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6.200000000000045</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>6.200000000000045</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="19">
